--- a/apps/load_data/2018/04/PLMOVMAE.xlsx
+++ b/apps/load_data/2018/04/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2018\HHY0418\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2018\HHY0418\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{371E143D-11B2-4B2A-A252-A6F6880F6225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6127B44C-8025-4858-9224-91236776A4C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$266</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$266</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10594" uniqueCount="2641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10581" uniqueCount="2639">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6490,9 +6491,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    123168    1231681081    326625    3266251082    175875    1758752001         0     424602006     44500     445002026    323224    3232242027      3068      30682029      1500      15002086      2500      25002180       250       250</t>
   </si>
   <si>
@@ -7826,9 +7824,6 @@
   </si>
   <si>
     <t>06567208</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -7951,7 +7946,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8791,10 +8786,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC209" sqref="AC209:AD261"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45176,12 +45173,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -45246,10 +45238,10 @@
         <v>110</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2156</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2157</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>113</v>
@@ -45261,7 +45253,7 @@
         <v>152</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>117</v>
@@ -45282,13 +45274,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2159</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45323,13 +45315,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2163</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2164</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45361,12 +45353,7 @@
       <c r="AB210" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -45413,7 +45400,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="BB210" s="1">
         <v>4</v>
@@ -45431,10 +45418,10 @@
         <v>110</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2166</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2167</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>113</v>
@@ -45446,13 +45433,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>117</v>
@@ -45476,13 +45463,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1793</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45517,13 +45504,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2173</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2174</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45555,12 +45542,7 @@
       <c r="AB211" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -45607,7 +45589,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BB211" s="1">
         <v>4</v>
@@ -45628,10 +45610,10 @@
         <v>110</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2177</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>113</v>
@@ -45643,13 +45625,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>117</v>
@@ -45673,13 +45655,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2181</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45714,13 +45696,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2183</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2184</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2185</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -45749,12 +45731,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -45804,7 +45781,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="BB212" s="1">
         <v>4</v>
@@ -45822,10 +45799,10 @@
         <v>110</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2187</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2188</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>113</v>
@@ -45834,7 +45811,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>117</v>
@@ -45852,13 +45829,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -45893,13 +45870,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2194</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -45928,12 +45905,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -45983,7 +45955,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="BB213" s="1">
         <v>4</v>
@@ -46001,7 +45973,7 @@
         <v>110</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>113</v>
@@ -46010,7 +45982,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>117</v>
@@ -46031,10 +46003,10 @@
         <v>649</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2198</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46069,13 +46041,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2201</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2202</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -46104,12 +46076,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -46159,7 +46126,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="BB214" s="1">
         <v>4</v>
@@ -46177,7 +46144,7 @@
         <v>110</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>581</v>
@@ -46189,7 +46156,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>117</v>
@@ -46207,13 +46174,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2206</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2206</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46248,13 +46215,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2209</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2210</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -46289,12 +46256,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -46341,7 +46303,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="BB215" s="1">
         <v>4</v>
@@ -46350,7 +46312,7 @@
         <v>18</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>108</v>
@@ -46362,10 +46324,10 @@
         <v>110</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2213</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2214</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>113</v>
@@ -46377,13 +46339,13 @@
         <v>114</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>117</v>
@@ -46401,13 +46363,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46442,13 +46404,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2220</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2221</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2222</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46477,12 +46439,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -46532,7 +46489,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BB216" s="1">
         <v>4</v>
@@ -46550,7 +46507,7 @@
         <v>110</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>581</v>
@@ -46562,7 +46519,7 @@
         <v>102</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>117</v>
@@ -46580,13 +46537,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2226</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2227</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2228</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46621,13 +46578,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2230</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2231</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46656,12 +46613,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -46711,7 +46663,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BB217" s="1">
         <v>4</v>
@@ -46729,7 +46681,7 @@
         <v>110</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>2100</v>
@@ -46744,7 +46696,7 @@
         <v>152</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>117</v>
@@ -46762,13 +46714,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2236</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2237</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -46803,13 +46755,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2239</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2240</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -46838,12 +46790,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -46890,7 +46837,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="BB218" s="1">
         <v>4</v>
@@ -46899,7 +46846,7 @@
         <v>18</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>108</v>
@@ -46911,10 +46858,10 @@
         <v>110</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2243</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2244</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>113</v>
@@ -46926,13 +46873,13 @@
         <v>211</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>117</v>
@@ -46950,13 +46897,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>431</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -46991,13 +46938,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2250</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2251</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -47029,12 +46976,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -47084,7 +47026,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="BB219" s="1">
         <v>4</v>
@@ -47105,7 +47047,7 @@
         <v>110</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>786</v>
@@ -47117,7 +47059,7 @@
         <v>102</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>117</v>
@@ -47138,13 +47080,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2256</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2257</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47179,13 +47121,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2259</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2260</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -47214,12 +47156,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2155</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -47266,7 +47203,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BB220" s="1">
         <v>4</v>
@@ -47287,10 +47224,10 @@
         <v>110</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2262</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2263</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>113</v>
@@ -47302,13 +47239,13 @@
         <v>114</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>117</v>
@@ -47326,13 +47263,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1631</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47367,13 +47304,13 @@
         <v>159</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2270</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47424,7 +47361,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -47469,13 +47406,13 @@
         <v>110</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>117</v>
@@ -47499,10 +47436,10 @@
         <v>2051</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47537,13 +47474,13 @@
         <v>159</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47597,7 +47534,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47642,13 +47579,13 @@
         <v>110</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>117</v>
@@ -47669,13 +47606,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2282</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47710,13 +47647,13 @@
         <v>159</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -47770,7 +47707,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -47815,13 +47752,13 @@
         <v>110</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>117</v>
@@ -47842,13 +47779,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2290</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -47883,13 +47820,13 @@
         <v>159</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2293</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2294</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -47985,13 +47922,13 @@
         <v>110</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>117</v>
@@ -48012,10 +47949,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>199</v>
@@ -48053,13 +47990,13 @@
         <v>159</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2298</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2299</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2300</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -48113,7 +48050,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48158,13 +48095,13 @@
         <v>110</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>117</v>
@@ -48188,13 +48125,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1134</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48229,13 +48166,13 @@
         <v>159</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2304</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2305</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2306</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -48286,7 +48223,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -48331,13 +48268,13 @@
         <v>110</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>117</v>
@@ -48358,13 +48295,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2227</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2311</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48399,10 +48336,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2312</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2313</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>222</v>
@@ -48468,7 +48405,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -48486,7 +48423,7 @@
         <v>226</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48515,16 +48452,16 @@
         <v>91</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2316</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2317</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>222</v>
@@ -48593,7 +48530,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>119</v>
@@ -48605,7 +48542,7 @@
         <v>226</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -48640,13 +48577,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2321</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -48724,7 +48661,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BB229" s="1">
         <v>4</v>
@@ -48742,7 +48679,7 @@
         <v>110</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1029</v>
@@ -48757,7 +48694,7 @@
         <v>152</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>117</v>
@@ -48775,13 +48712,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>431</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -48816,13 +48753,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -48897,7 +48834,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BB230" s="1">
         <v>4</v>
@@ -48915,7 +48852,7 @@
         <v>110</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>1760</v>
@@ -48930,13 +48867,13 @@
         <v>211</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>117</v>
@@ -48954,13 +48891,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2336</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -48995,13 +48932,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2339</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -49076,7 +49013,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BB231" s="1">
         <v>4</v>
@@ -49094,10 +49031,10 @@
         <v>110</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>113</v>
@@ -49109,13 +49046,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>117</v>
@@ -49133,13 +49070,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2345</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2346</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2347</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49174,13 +49111,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2348</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2349</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2350</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -49258,7 +49195,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BB232" s="1">
         <v>4</v>
@@ -49276,7 +49213,7 @@
         <v>110</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1029</v>
@@ -49288,7 +49225,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>117</v>
@@ -49306,13 +49243,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>815</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49347,13 +49284,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2357</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2358</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49386,7 +49323,7 @@
         <v>103</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1728</v>
@@ -49431,7 +49368,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BB233" s="1">
         <v>4</v>
@@ -49449,7 +49386,7 @@
         <v>110</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1665</v>
@@ -49461,7 +49398,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>117</v>
@@ -49482,10 +49419,10 @@
         <v>1451</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2364</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49520,13 +49457,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2365</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2366</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2367</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -49604,7 +49541,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BB234" s="1">
         <v>4</v>
@@ -49622,7 +49559,7 @@
         <v>110</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1791</v>
@@ -49634,7 +49571,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>117</v>
@@ -49658,7 +49595,7 @@
         <v>886</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -49693,13 +49630,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -49777,7 +49714,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BB235" s="1">
         <v>4</v>
@@ -49795,10 +49732,10 @@
         <v>110</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BI235" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>113</v>
@@ -49807,7 +49744,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>117</v>
@@ -49825,13 +49762,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2378</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2379</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2380</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -49866,13 +49803,13 @@
         <v>159</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2382</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2383</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -49914,7 +49851,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -49953,13 +49890,13 @@
         <v>110</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>117</v>
@@ -49977,13 +49914,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>303</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50018,13 +49955,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2389</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2390</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2391</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -50063,7 +50000,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>103</v>
@@ -50117,7 +50054,7 @@
         <v>18</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>108</v>
@@ -50129,10 +50066,10 @@
         <v>110</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2393</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2394</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>113</v>
@@ -50144,13 +50081,13 @@
         <v>211</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>117</v>
@@ -50171,7 +50108,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>293</v>
@@ -50212,13 +50149,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2400</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -50311,7 +50248,7 @@
         <v>110</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BI238" s="1" t="s">
         <v>388</v>
@@ -50326,13 +50263,13 @@
         <v>114</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>117</v>
@@ -50356,7 +50293,7 @@
         <v>639</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -50391,13 +50328,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -50490,7 +50427,7 @@
         <v>110</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>113</v>
@@ -50499,7 +50436,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>117</v>
@@ -50517,13 +50454,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -50558,13 +50495,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2414</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2415</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -50657,7 +50594,7 @@
         <v>110</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>862</v>
@@ -50669,7 +50606,7 @@
         <v>102</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>117</v>
@@ -50687,13 +50624,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -50728,13 +50665,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -50827,10 +50764,10 @@
         <v>110</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>113</v>
@@ -50842,13 +50779,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>117</v>
@@ -50869,10 +50806,10 @@
         <v>515</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -50907,13 +50844,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2432</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -51006,10 +50943,10 @@
         <v>110</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>113</v>
@@ -51021,13 +50958,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>117</v>
@@ -51048,10 +50985,10 @@
         <v>886</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2438</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51086,13 +51023,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2441</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -51182,7 +51119,7 @@
         <v>110</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>113</v>
@@ -51194,13 +51131,13 @@
         <v>114</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>117</v>
@@ -51218,13 +51155,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51259,13 +51196,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -51358,7 +51295,7 @@
         <v>110</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>1698</v>
@@ -51373,13 +51310,13 @@
         <v>114</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>117</v>
@@ -51397,13 +51334,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -51438,13 +51375,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -51537,7 +51474,7 @@
         <v>110</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>113</v>
@@ -51546,7 +51483,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>117</v>
@@ -51567,10 +51504,10 @@
         <v>1150</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -51605,13 +51542,13 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
@@ -51689,7 +51626,7 @@
         <v>98</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BB246" s="1">
         <v>4</v>
@@ -51707,7 +51644,7 @@
         <v>110</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>113</v>
@@ -51716,7 +51653,7 @@
         <v>102</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>117</v>
@@ -51734,13 +51671,13 @@
         <v>98</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2471</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -51775,13 +51712,13 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
@@ -51859,7 +51796,7 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BB247" s="1">
         <v>4</v>
@@ -51877,7 +51814,7 @@
         <v>110</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>1665</v>
@@ -51889,7 +51826,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>117</v>
@@ -51907,13 +51844,13 @@
         <v>98</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -51948,13 +51885,13 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
@@ -52032,7 +51969,7 @@
         <v>98</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BB248" s="1">
         <v>4</v>
@@ -52050,7 +51987,7 @@
         <v>110</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>113</v>
@@ -52059,7 +51996,7 @@
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>117</v>
@@ -52080,10 +52017,10 @@
         <v>1022</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -52118,13 +52055,13 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2488</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2489</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
@@ -52199,7 +52136,7 @@
         <v>98</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BB249" s="1">
         <v>4</v>
@@ -52220,10 +52157,10 @@
         <v>110</v>
       </c>
       <c r="BH249" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="BI249" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="BI249" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>113</v>
@@ -52235,13 +52172,13 @@
         <v>211</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BS249" s="3">
         <v>37513</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>117</v>
@@ -52259,13 +52196,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>121</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -52300,13 +52237,13 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
@@ -52396,10 +52333,10 @@
         <v>110</v>
       </c>
       <c r="BH250" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="BI250" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="BI250" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>113</v>
@@ -52411,13 +52348,13 @@
         <v>99</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BS250" s="3">
         <v>41024</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>117</v>
@@ -52435,13 +52372,13 @@
         <v>98</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -52476,13 +52413,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -52515,7 +52452,7 @@
         <v>103</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="AH251" s="1" t="s">
         <v>1728</v>
@@ -52539,28 +52476,28 @@
         <v>97</v>
       </c>
       <c r="AQ251" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="AR251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY251" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ251" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="AR251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY251" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ251" s="1" t="s">
-        <v>2511</v>
       </c>
       <c r="BB251" s="1">
         <v>4</v>
@@ -52578,7 +52515,7 @@
         <v>110</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>1730</v>
@@ -52593,13 +52530,13 @@
         <v>114</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BS251" s="3">
         <v>34808</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>117</v>
@@ -52617,13 +52554,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -52658,13 +52595,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -52739,7 +52676,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BB252" s="1">
         <v>4</v>
@@ -52757,10 +52694,10 @@
         <v>110</v>
       </c>
       <c r="BH252" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="BI252" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="BI252" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>113</v>
@@ -52772,13 +52709,13 @@
         <v>99</v>
       </c>
       <c r="BR252" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BS252" s="3">
         <v>37336</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>117</v>
@@ -52796,13 +52733,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -52837,13 +52774,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -52921,7 +52858,7 @@
         <v>98</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BB253" s="1">
         <v>4</v>
@@ -52939,7 +52876,7 @@
         <v>110</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BI253" s="1" t="s">
         <v>581</v>
@@ -52951,7 +52888,7 @@
         <v>102</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>117</v>
@@ -52969,13 +52906,13 @@
         <v>98</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -53010,13 +52947,13 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -53109,7 +53046,7 @@
         <v>110</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>113</v>
@@ -53118,7 +53055,7 @@
         <v>102</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>117</v>
@@ -53136,13 +53073,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -53177,13 +53114,13 @@
         <v>159</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
@@ -53276,13 +53213,13 @@
         <v>110</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>117</v>
@@ -53300,13 +53237,13 @@
         <v>98</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>2129</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -53335,7 +53272,7 @@
         <v>91</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>93</v>
@@ -53344,10 +53281,10 @@
         <v>254</v>
       </c>
       <c r="L256" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="M256" s="1" t="s">
         <v>2554</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>2555</v>
       </c>
       <c r="N256" s="1" t="s">
         <v>256</v>
@@ -53377,7 +53314,7 @@
         <v>42582</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>103</v>
@@ -53428,10 +53365,10 @@
         <v>257</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>113</v>
@@ -53487,7 +53424,7 @@
         <v>123</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>89</v>
@@ -53505,16 +53442,16 @@
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="M257" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>2555</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="Q257" s="3">
         <v>17060</v>
@@ -53547,7 +53484,7 @@
         <v>42628</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>103</v>
@@ -53598,16 +53535,16 @@
         <v>98</v>
       </c>
       <c r="AZ257" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BD257" s="1" t="s">
         <v>224</v>
       </c>
       <c r="BH257" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="BI257" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="BI257" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>113</v>
@@ -53616,7 +53553,7 @@
         <v>102</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>117</v>
@@ -53640,7 +53577,7 @@
         <v>121</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -53657,7 +53594,7 @@
         <v>123</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>98</v>
@@ -53669,22 +53606,22 @@
         <v>91</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="M258" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="N258" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>2555</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="Q258" s="3">
         <v>26864</v>
@@ -53714,7 +53651,7 @@
         <v>42735</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>103</v>
@@ -53765,7 +53702,7 @@
         <v>99</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>113</v>
@@ -53777,13 +53714,13 @@
         <v>211</v>
       </c>
       <c r="BR258" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BS258" s="3">
         <v>102</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>117</v>
@@ -53804,13 +53741,13 @@
         <v>98</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2579</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2580</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -53839,22 +53776,22 @@
         <v>91</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="M259" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>2555</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2583</v>
       </c>
       <c r="Q259" s="3">
         <v>17041</v>
@@ -53881,7 +53818,7 @@
         <v>42735</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>103</v>
@@ -53932,7 +53869,7 @@
         <v>98</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>113</v>
@@ -53941,7 +53878,7 @@
         <v>102</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>117</v>
@@ -53962,13 +53899,13 @@
         <v>98</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="CD259" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="CD259" s="1" t="s">
+      <c r="CE259" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>2588</v>
       </c>
     </row>
     <row r="260" spans="1:83" x14ac:dyDescent="0.25">
@@ -54003,16 +53940,16 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="M260" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="N260" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>2555</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="Q260" s="3">
         <v>25379</v>
@@ -54042,7 +53979,7 @@
         <v>39800</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>232</v>
@@ -54093,7 +54030,7 @@
         <v>99</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>113</v>
@@ -54105,13 +54042,13 @@
         <v>222</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BS260" s="3">
         <v>35915</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>117</v>
@@ -54126,7 +54063,7 @@
         <v>233</v>
       </c>
       <c r="BZ260" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="CA260" s="1" t="s">
         <v>119</v>
@@ -54141,7 +54078,7 @@
         <v>442</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -54176,16 +54113,16 @@
         <v>93</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="M261" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="N261" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="M261" s="1" t="s">
-        <v>2555</v>
-      </c>
-      <c r="N261" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="Q261" s="3">
         <v>23750</v>
@@ -54214,12 +54151,7 @@
       <c r="AA261" s="1">
         <v>0</v>
       </c>
-      <c r="AC261" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD261" s="1" t="s">
-        <v>2601</v>
-      </c>
+      <c r="AC261" s="3"/>
       <c r="AF261" s="1" t="s">
         <v>103</v>
       </c>
@@ -54269,13 +54201,13 @@
         <v>98</v>
       </c>
       <c r="AZ261" s="1" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="BD261" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>113</v>
@@ -54284,7 +54216,7 @@
         <v>102</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>117</v>
@@ -54308,10 +54240,10 @@
         <v>1062</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="262" spans="1:83" x14ac:dyDescent="0.25">
@@ -54346,13 +54278,13 @@
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="N262" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>2608</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>2609</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>97</v>
@@ -54442,10 +54374,10 @@
         <v>110</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="BI262" s="1" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>113</v>
@@ -54454,13 +54386,13 @@
         <v>99</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="BS262" s="3">
         <v>35209</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>117</v>
@@ -54481,10 +54413,10 @@
         <v>1509</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -54519,16 +54451,16 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="N263" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="L263" s="1" t="s">
-        <v>2616</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>2555</v>
-      </c>
-      <c r="N263" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="Q263" s="3">
         <v>17470</v>
@@ -54558,7 +54490,7 @@
         <v>43100</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>103</v>
@@ -54609,7 +54541,7 @@
         <v>98</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>113</v>
@@ -54618,7 +54550,7 @@
         <v>102</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>117</v>
@@ -54633,7 +54565,7 @@
         <v>97</v>
       </c>
       <c r="BZ263" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="CA263" s="1" t="s">
         <v>119</v>
@@ -54642,13 +54574,13 @@
         <v>98</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="CE263" s="1" t="s">
         <v>2620</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>2621</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>2622</v>
       </c>
     </row>
     <row r="264" spans="1:83" x14ac:dyDescent="0.25">
@@ -54683,7 +54615,7 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="L264" s="1" t="s">
         <v>2133</v>
@@ -54802,16 +54734,16 @@
         <v>93</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="N265" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>2625</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>2555</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="Q265" s="3">
         <v>23356</v>
@@ -54838,7 +54770,7 @@
         <v>43105</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>103</v>
@@ -54886,7 +54818,7 @@
         <v>98</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>113</v>
@@ -54898,13 +54830,13 @@
         <v>99</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="BS265" s="3">
         <v>34412</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>117</v>
@@ -54922,13 +54854,13 @@
         <v>98</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>2142</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="266" spans="1:83" x14ac:dyDescent="0.25">
@@ -54963,16 +54895,16 @@
         <v>159</v>
       </c>
       <c r="K266" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N266" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="L266" s="1" t="s">
-        <v>2634</v>
-      </c>
-      <c r="M266" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>97</v>
@@ -55068,13 +55000,13 @@
         <v>110</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>117</v>
@@ -55092,16 +55024,17 @@
         <v>98</v>
       </c>
       <c r="CC266" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="CD266" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="CE266" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="CD266" s="1" t="s">
-        <v>2639</v>
-      </c>
-      <c r="CE266" s="1" t="s">
-        <v>2640</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF266" xr:uid="{0B5BF149-42EC-4F09-BA0B-3AE39092A7AD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>